--- a/empresa/UD.6.1 cálc Plazo Recuperación y Umbral Rentabilidad.xlsx
+++ b/empresa/UD.6.1 cálc Plazo Recuperación y Umbral Rentabilidad.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="84">
   <si>
     <t xml:space="preserve">ANÁLISIS DE COSTES Y PRECIOS</t>
   </si>
@@ -124,13 +124,7 @@
     <t xml:space="preserve">Mobiliario</t>
   </si>
   <si>
-    <t xml:space="preserve">Cenas de empresa</t>
-  </si>
-  <si>
     <t xml:space="preserve">Suministros (luz, agua, gas, cuota móvil…)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Averias </t>
   </si>
   <si>
     <t xml:space="preserve">Limpieza</t>
@@ -801,7 +795,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="97">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1155,10 +1149,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="169" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1387,8 +1377,8 @@
   </sheetPr>
   <dimension ref="A2:R101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B75" activeCellId="0" sqref="B75"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1432,7 +1422,7 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="7" t="n">
-        <v>7000</v>
+        <v>42000</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -1591,12 +1581,8 @@
       <c r="B10" s="18" t="n">
         <v>2000</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="20" t="n">
-        <v>250</v>
-      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="20"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
@@ -1612,17 +1598,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="18" t="n">
         <v>1400</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="20" t="n">
-        <v>500</v>
-      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
       <c r="E11" s="23"/>
       <c r="F11" s="23"/>
       <c r="G11" s="23"/>
@@ -1638,7 +1620,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" s="18" t="n">
         <v>2000</v>
@@ -1660,7 +1642,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B13" s="20" t="n">
         <f aca="false">15*12</f>
@@ -1683,7 +1665,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14" s="18" t="n">
         <v>1000</v>
@@ -1705,7 +1687,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B15" s="18" t="n">
         <v>10000</v>
@@ -1727,7 +1709,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B16" s="18" t="n">
         <v>2880</v>
@@ -1749,7 +1731,7 @@
     </row>
     <row r="17" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="27" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17" s="28" t="n">
         <f aca="false">SUM(B6:B16)</f>
@@ -1758,26 +1740,25 @@
       <c r="C17" s="29"/>
       <c r="D17" s="30" t="n">
         <f aca="false">SUM(D6:D16)</f>
-        <v>10216.6666666667</v>
+        <v>9466.66666666667</v>
       </c>
       <c r="E17" s="31" t="n">
         <f aca="false">D17/(100%-G17)</f>
-        <v>68111.1111111111</v>
+        <v>63111.1111111111</v>
       </c>
       <c r="F17" s="31" t="n">
-        <f aca="false">E17/F4</f>
-        <v>9.73015873015873</v>
+        <v>15</v>
       </c>
       <c r="G17" s="32" t="n">
         <v>0.85</v>
       </c>
       <c r="H17" s="33" t="n">
         <f aca="false">F17*G17</f>
-        <v>8.27063492063492</v>
+        <v>12.75</v>
       </c>
       <c r="I17" s="28" t="n">
         <f aca="false">F17-H17</f>
-        <v>1.45952380952381</v>
+        <v>2.25</v>
       </c>
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
@@ -1789,11 +1770,11 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E18" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F18" s="33" t="n">
         <f aca="false">F17/12</f>
-        <v>0.810846560846561</v>
+        <v>1.25</v>
       </c>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
@@ -1806,16 +1787,16 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="35" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B19" s="36"/>
       <c r="C19" s="37"/>
       <c r="E19" s="38" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F19" s="39" t="n">
         <f aca="false">F18*1.21</f>
-        <v>0.981124338624338</v>
+        <v>1.5125</v>
       </c>
       <c r="G19" s="13"/>
       <c r="I19" s="13"/>
@@ -1831,7 +1812,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="40" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B20" s="41"/>
       <c r="C20" s="42"/>
@@ -1868,10 +1849,10 @@
     </row>
     <row r="23" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
@@ -1887,11 +1868,11 @@
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="29" t="n">
         <f aca="false">F17</f>
-        <v>9.73015873015873</v>
+        <v>15</v>
       </c>
       <c r="B24" s="29" t="n">
         <f aca="false">I17</f>
-        <v>1.45952380952381</v>
+        <v>2.25</v>
       </c>
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
@@ -1936,7 +1917,7 @@
     </row>
     <row r="27" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="44" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B27" s="45"/>
       <c r="C27" s="45"/>
@@ -1947,29 +1928,29 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="47" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B33" s="48" t="n">
         <f aca="false">B17/(F17-I17)</f>
-        <v>6118.28480951924</v>
+        <v>3968.79215686275</v>
       </c>
       <c r="C33" s="49" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D33" s="50"/>
       <c r="E33" s="50"/>
@@ -1979,13 +1960,13 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="54" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H34" s="55"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="56" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D35" s="57"/>
       <c r="E35" s="57"/>
@@ -1995,7 +1976,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="59" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B38" s="36"/>
       <c r="C38" s="37"/>
@@ -2007,19 +1988,19 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="61" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C40" s="63" t="n">
         <f aca="false">F17*B33</f>
         <v>59531.8823529412</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="40" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B41" s="41"/>
       <c r="C41" s="64" t="n">
@@ -2027,7 +2008,7 @@
         <v>59531.8823529412</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2038,12 +2019,12 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="65" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="66" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B46" s="46"/>
       <c r="C46" s="46"/>
@@ -2054,7 +2035,7 @@
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="46"/>
       <c r="B47" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C47" s="46"/>
       <c r="D47" s="46"/>
@@ -2066,12 +2047,12 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="67" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B52" s="68"/>
       <c r="C52" s="68"/>
@@ -2082,7 +2063,7 @@
     </row>
     <row r="54" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="70" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
@@ -2090,16 +2071,16 @@
     <row r="55" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="71"/>
       <c r="B55" s="72" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="D55" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="C55" s="73" t="s">
+      <c r="E55" s="74" t="s">
         <v>55</v>
-      </c>
-      <c r="D55" s="74" t="s">
-        <v>56</v>
-      </c>
-      <c r="E55" s="74" t="s">
-        <v>57</v>
       </c>
       <c r="G55" s="75"/>
       <c r="H55" s="75"/>
@@ -2110,7 +2091,7 @@
     </row>
     <row r="56" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="77" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B56" s="13" t="n">
         <f aca="false">D52</f>
@@ -2123,59 +2104,59 @@
       </c>
       <c r="E56" s="33" t="n">
         <f aca="false">-B17-D17</f>
-        <v>-60818.7666666667</v>
+        <v>-60068.7666666667</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
     </row>
     <row r="57" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="77" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B57" s="33" t="n">
         <f aca="false">C57*$F$17-($B$17+$I$17*C57)</f>
-        <v>7292.34444444443</v>
+        <v>484897.9</v>
       </c>
       <c r="C57" s="78" t="n">
-        <v>7000</v>
+        <v>42000</v>
       </c>
       <c r="D57" s="33" t="n">
         <f aca="false">C57*$F$17</f>
-        <v>68111.1111111111</v>
+        <v>630000</v>
       </c>
       <c r="E57" s="33" t="n">
         <f aca="false">-($B$17+C57*$I$17)</f>
-        <v>-60818.7666666667</v>
+        <v>-145102.1</v>
       </c>
       <c r="F57" s="60" t="n">
         <f aca="false">D57+E57</f>
-        <v>7292.34444444443</v>
+        <v>484897.9</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
     </row>
     <row r="58" s="76" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="77" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B58" s="33" t="n">
         <f aca="false">C58*$F$17-($B$17+$I$17*C58)</f>
-        <v>32104.2492063492</v>
+        <v>586897.9</v>
       </c>
       <c r="C58" s="78" t="n">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="D58" s="33" t="n">
         <f aca="false">C58*$F$17</f>
-        <v>97301.5873015873</v>
+        <v>750000</v>
       </c>
       <c r="E58" s="33" t="n">
         <f aca="false">-($B$17+C58*$I$17)</f>
-        <v>-65197.3380952381</v>
+        <v>-163102.1</v>
       </c>
       <c r="F58" s="60" t="n">
         <f aca="false">D58+E58</f>
-        <v>32104.2492063492</v>
+        <v>586897.9</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
@@ -2186,46 +2167,46 @@
     </row>
     <row r="59" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="77" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B59" s="33" t="n">
         <f aca="false">C59*$F$17-($B$17+$I$17*C59)</f>
-        <v>48645.519047619</v>
+        <v>714397.9</v>
       </c>
       <c r="C59" s="78" t="n">
-        <v>12000</v>
+        <v>60000</v>
       </c>
       <c r="D59" s="33" t="n">
         <f aca="false">C59*$F$17</f>
-        <v>116761.904761905</v>
+        <v>900000</v>
       </c>
       <c r="E59" s="33" t="n">
         <f aca="false">-($B$17+C59*$I$17)</f>
-        <v>-68116.3857142857</v>
+        <v>-185602.1</v>
       </c>
       <c r="H59" s="2"/>
     </row>
     <row r="60" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="79" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B60" s="80" t="n">
         <f aca="false">C60*$F$17-($B$17+$I$17*C60)</f>
-        <v>73457.4238095238</v>
+        <v>841897.9</v>
       </c>
       <c r="C60" s="81" t="n">
-        <v>15000</v>
+        <v>70000</v>
       </c>
       <c r="D60" s="80" t="n">
         <f aca="false">C60*$F$17</f>
-        <v>145952.380952381</v>
+        <v>1050000</v>
       </c>
       <c r="E60" s="33" t="n">
         <f aca="false">-($B$17+C60*$I$17)</f>
-        <v>-72494.9571428571</v>
+        <v>-208102.1</v>
       </c>
       <c r="F60" s="82" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G60" s="83"/>
       <c r="H60" s="83"/>
@@ -2233,67 +2214,67 @@
     </row>
     <row r="61" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="77" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B61" s="33" t="n">
         <f aca="false">C61*$F$17-($B$17+$I$17*C61)</f>
-        <v>106539.963492063</v>
-      </c>
-      <c r="C61" s="78" t="n">
-        <v>19000</v>
+        <v>841910.65</v>
+      </c>
+      <c r="C61" s="81" t="n">
+        <v>70001</v>
       </c>
       <c r="D61" s="33" t="n">
         <f aca="false">C61*$F$17</f>
-        <v>184873.015873016</v>
+        <v>1050015</v>
       </c>
       <c r="E61" s="33" t="n">
         <f aca="false">-($B$17+C61*$I$17)</f>
-        <v>-78333.0523809524</v>
+        <v>-208104.35</v>
       </c>
       <c r="H61" s="2"/>
     </row>
     <row r="62" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="77" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B62" s="33" t="n">
         <f aca="false">C62*$F$17-($B$17+$I$17*C62)</f>
-        <v>156163.773015873</v>
-      </c>
-      <c r="C62" s="78" t="n">
-        <v>25000</v>
+        <v>841923.4</v>
+      </c>
+      <c r="C62" s="81" t="n">
+        <v>70002</v>
       </c>
       <c r="D62" s="33" t="n">
         <f aca="false">C62*$F$17</f>
-        <v>243253.968253968</v>
+        <v>1050030</v>
       </c>
       <c r="E62" s="33" t="n">
         <f aca="false">-($B$17+C62*$I$17)</f>
-        <v>-87090.1952380952</v>
+        <v>-208106.6</v>
       </c>
       <c r="H62" s="2"/>
     </row>
     <row r="63" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="77" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B63" s="33" t="n">
         <f aca="false">C63*$F$17-($B$17+$I$17*C63)</f>
-        <v>156163.773015873</v>
-      </c>
-      <c r="C63" s="78" t="n">
-        <v>25000</v>
+        <v>841936.15</v>
+      </c>
+      <c r="C63" s="81" t="n">
+        <v>70003</v>
       </c>
       <c r="D63" s="33" t="n">
         <f aca="false">C63*$F$17</f>
-        <v>243253.968253968</v>
+        <v>1050045</v>
       </c>
       <c r="E63" s="33" t="n">
         <f aca="false">-($B$17+C63*$I$17)</f>
-        <v>-87090.1952380952</v>
+        <v>-208108.85</v>
       </c>
       <c r="F63" s="82" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G63" s="84"/>
       <c r="H63" s="83"/>
@@ -2301,25 +2282,25 @@
     </row>
     <row r="64" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="77" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B64" s="33" t="n">
         <f aca="false">C64*$F$17-($B$17+$I$17*C64)</f>
-        <v>180975.677777778</v>
-      </c>
-      <c r="C64" s="78" t="n">
-        <v>28000</v>
+        <v>841948.9</v>
+      </c>
+      <c r="C64" s="81" t="n">
+        <v>70004</v>
       </c>
       <c r="D64" s="33" t="n">
         <f aca="false">C64*$F$17</f>
-        <v>272444.444444444</v>
+        <v>1050060</v>
       </c>
       <c r="E64" s="33" t="n">
         <f aca="false">-($B$17+C64*$I$17)</f>
-        <v>-91468.7666666666</v>
+        <v>-208111.1</v>
       </c>
       <c r="F64" s="82" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G64" s="83"/>
       <c r="H64" s="83"/>
@@ -2327,26 +2308,26 @@
     </row>
     <row r="65" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="77" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B65" s="33" t="n">
         <f aca="false">C65*$F$17-($B$17+$I$17*C65)</f>
-        <v>197516.947619048</v>
-      </c>
-      <c r="C65" s="78" t="n">
-        <v>30000</v>
+        <v>841961.65</v>
+      </c>
+      <c r="C65" s="81" t="n">
+        <v>70005</v>
       </c>
       <c r="D65" s="33" t="n">
         <f aca="false">C65*$F$17</f>
-        <v>291904.761904762</v>
+        <v>1050075</v>
       </c>
       <c r="E65" s="33" t="n">
         <f aca="false">-($B$17+C65*$I$17)</f>
-        <v>-94387.8142857143</v>
+        <v>-208113.35</v>
       </c>
       <c r="F65" s="85" t="n">
         <f aca="false">SUM(B56:B59)</f>
-        <v>37440.0126984127</v>
+        <v>1735591.6</v>
       </c>
       <c r="G65" s="83"/>
       <c r="H65" s="83"/>
@@ -2354,25 +2335,25 @@
     </row>
     <row r="66" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="79" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B66" s="80" t="n">
         <f aca="false">C66*$F$17-($B$17+$I$17*C66)</f>
-        <v>238870.122222222</v>
+        <v>841974.4</v>
       </c>
       <c r="C66" s="81" t="n">
-        <v>35000</v>
+        <v>70006</v>
       </c>
       <c r="D66" s="80" t="n">
         <f aca="false">C66*$F$17</f>
-        <v>340555.555555555</v>
+        <v>1050090</v>
       </c>
       <c r="E66" s="33" t="n">
         <f aca="false">-($B$17+C66*$I$17)</f>
-        <v>-101685.433333333</v>
+        <v>-208115.6</v>
       </c>
       <c r="F66" s="86" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G66" s="83"/>
       <c r="H66" s="83"/>
@@ -2380,22 +2361,22 @@
     </row>
     <row r="67" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="77" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B67" s="33" t="n">
         <f aca="false">C67*$F$17-($B$17+$I$17*C67)</f>
-        <v>271952.661904762</v>
-      </c>
-      <c r="C67" s="78" t="n">
-        <v>39000</v>
+        <v>841987.15</v>
+      </c>
+      <c r="C67" s="81" t="n">
+        <v>70007</v>
       </c>
       <c r="D67" s="33" t="n">
         <f aca="false">C67*$F$17</f>
-        <v>379476.19047619</v>
+        <v>1050105</v>
       </c>
       <c r="E67" s="33" t="n">
         <f aca="false">-($B$17+C67*$I$17)</f>
-        <v>-107523.528571429</v>
+        <v>-208117.85</v>
       </c>
       <c r="F67" s="13"/>
       <c r="G67" s="2"/>
@@ -2403,22 +2384,22 @@
     </row>
     <row r="68" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="77" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B68" s="33" t="n">
         <f aca="false">C68*$F$17-($B$17+$I$17*C68)</f>
-        <v>321576.471428571</v>
-      </c>
-      <c r="C68" s="78" t="n">
-        <v>45000</v>
+        <v>841999.9</v>
+      </c>
+      <c r="C68" s="81" t="n">
+        <v>70008</v>
       </c>
       <c r="D68" s="33" t="n">
         <f aca="false">C68*$F$17</f>
-        <v>437857.142857143</v>
+        <v>1050120</v>
       </c>
       <c r="E68" s="33" t="n">
         <f aca="false">-($B$17+C68*$I$17)</f>
-        <v>-116280.671428571</v>
+        <v>-208120.1</v>
       </c>
       <c r="F68" s="13"/>
       <c r="G68" s="2"/>
@@ -2426,22 +2407,22 @@
     </row>
     <row r="69" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="77" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B69" s="33" t="n">
         <f aca="false">C69*$F$17-($B$17+$I$17*C69)</f>
-        <v>362929.646031746</v>
-      </c>
-      <c r="C69" s="78" t="n">
-        <v>50000</v>
+        <v>842012.65</v>
+      </c>
+      <c r="C69" s="81" t="n">
+        <v>70009</v>
       </c>
       <c r="D69" s="33" t="n">
         <f aca="false">C69*$F$17</f>
-        <v>486507.936507936</v>
+        <v>1050135</v>
       </c>
       <c r="E69" s="33" t="n">
         <f aca="false">-($B$17+C69*$I$17)</f>
-        <v>-123578.29047619</v>
+        <v>-208122.35</v>
       </c>
       <c r="F69" s="13"/>
       <c r="G69" s="2"/>
@@ -2462,7 +2443,7 @@
     <row r="72" s="1" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="87"/>
       <c r="B72" s="73" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C72" s="60"/>
       <c r="E72" s="13"/>
@@ -2472,7 +2453,7 @@
     </row>
     <row r="73" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="77" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B73" s="33" t="n">
         <f aca="false">B56</f>
@@ -2486,14 +2467,14 @@
     </row>
     <row r="74" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="77" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B74" s="88" t="n">
-        <f aca="false">B73-B57</f>
-        <v>-57894.4444444444</v>
+        <f aca="false">B73+B57</f>
+        <v>434295.8</v>
       </c>
       <c r="C74" s="60" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E74" s="13"/>
       <c r="F74" s="13"/>
@@ -2502,14 +2483,14 @@
     </row>
     <row r="75" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="77" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B75" s="88" t="n">
-        <f aca="false">B58-B74</f>
-        <v>89998.6936507936</v>
+        <f aca="false">B74+B58</f>
+        <v>1021193.7</v>
       </c>
       <c r="C75" s="60" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E75" s="13"/>
       <c r="F75" s="13"/>
@@ -2518,14 +2499,14 @@
     </row>
     <row r="76" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="79" t="s">
-        <v>61</v>
-      </c>
-      <c r="B76" s="89" t="n">
-        <f aca="false">B59-B75</f>
-        <v>-41353.1746031746</v>
-      </c>
-      <c r="C76" s="90" t="s">
-        <v>81</v>
+        <v>59</v>
+      </c>
+      <c r="B76" s="88" t="n">
+        <f aca="false">B75+B59</f>
+        <v>1735591.6</v>
+      </c>
+      <c r="C76" s="89" t="s">
+        <v>79</v>
       </c>
       <c r="D76" s="84"/>
       <c r="E76" s="13"/>
@@ -2535,14 +2516,14 @@
     </row>
     <row r="77" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="77" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B77" s="88" t="n">
-        <f aca="false">B60+B76</f>
-        <v>32104.2492063492</v>
+        <f aca="false">B76+B60</f>
+        <v>2577489.5</v>
       </c>
       <c r="C77" s="60" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E77" s="13"/>
       <c r="F77" s="13"/>
@@ -2551,22 +2532,22 @@
     </row>
     <row r="78" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="77" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B78" s="88" t="n">
-        <f aca="false">B61+B77</f>
-        <v>138644.212698413</v>
+        <f aca="false">B77+B61</f>
+        <v>3419400.15</v>
       </c>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
     </row>
     <row r="79" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="77" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B79" s="88" t="n">
-        <f aca="false">B62+B78</f>
-        <v>294807.985714286</v>
+        <f aca="false">B78+B62</f>
+        <v>4261323.55</v>
       </c>
       <c r="C79" s="70"/>
       <c r="D79" s="2"/>
@@ -2577,11 +2558,11 @@
     </row>
     <row r="80" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="77" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B80" s="88" t="n">
-        <f aca="false">B63+B79</f>
-        <v>450971.758730159</v>
+        <f aca="false">B79+B63</f>
+        <v>5103259.7</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -2591,13 +2572,13 @@
     </row>
     <row r="81" s="1" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="77" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B81" s="88" t="n">
-        <f aca="false">B64+B80</f>
-        <v>631947.436507936</v>
-      </c>
-      <c r="C81" s="91"/>
+        <f aca="false">B80+B64</f>
+        <v>5945208.6</v>
+      </c>
+      <c r="C81" s="90"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
@@ -2606,11 +2587,11 @@
     </row>
     <row r="82" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="77" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B82" s="88" t="n">
-        <f aca="false">B65+B81</f>
-        <v>829464.384126984</v>
+        <f aca="false">B81+B65</f>
+        <v>6787170.25</v>
       </c>
       <c r="C82" s="70"/>
       <c r="G82" s="2"/>
@@ -2618,28 +2599,28 @@
     </row>
     <row r="83" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="77" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B83" s="88" t="n">
-        <f aca="false">B66+B82</f>
-        <v>1068334.50634921</v>
+        <f aca="false">B82+B66</f>
+        <v>7629144.65</v>
       </c>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
     </row>
     <row r="84" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="77" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B84" s="88" t="n">
-        <f aca="false">B67+B83</f>
-        <v>1340287.16825397</v>
+        <f aca="false">B83+B67</f>
+        <v>8471131.8</v>
       </c>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
     </row>
     <row r="85" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="92"/>
+      <c r="B85" s="91"/>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
     </row>
@@ -2648,18 +2629,18 @@
       <c r="H86" s="2"/>
     </row>
     <row r="87" s="1" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="93" t="s">
-        <v>83</v>
-      </c>
-      <c r="B87" s="94" t="s">
-        <v>84</v>
+      <c r="A87" s="92" t="s">
+        <v>81</v>
+      </c>
+      <c r="B87" s="93" t="s">
+        <v>82</v>
       </c>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
     </row>
     <row r="88" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="77" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B88" s="33" t="n">
         <f aca="false">B56</f>
@@ -2670,129 +2651,129 @@
     </row>
     <row r="89" s="1" customFormat="true" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="77" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B89" s="33" t="n">
         <f aca="false">B88+B57</f>
-        <v>-43309.7555555556</v>
-      </c>
-      <c r="E89" s="95"/>
+        <v>434295.8</v>
+      </c>
+      <c r="E89" s="94"/>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
     </row>
     <row r="90" s="1" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="77" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B90" s="33" t="n">
         <f aca="false">B89+B58</f>
-        <v>-11205.5063492064</v>
-      </c>
-      <c r="C90" s="91"/>
-      <c r="E90" s="95"/>
+        <v>1021193.7</v>
+      </c>
+      <c r="C90" s="90"/>
+      <c r="E90" s="94"/>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
     </row>
     <row r="91" s="1" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="77" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B91" s="33" t="n">
         <f aca="false">B90+B59</f>
-        <v>37440.0126984127</v>
-      </c>
-      <c r="C91" s="91"/>
-      <c r="E91" s="95"/>
+        <v>1735591.6</v>
+      </c>
+      <c r="C91" s="90"/>
+      <c r="E91" s="94"/>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
     </row>
     <row r="92" s="1" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="77" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B92" s="33" t="n">
         <f aca="false">B91+B60</f>
-        <v>110897.436507936</v>
-      </c>
-      <c r="C92" s="91"/>
-      <c r="E92" s="95"/>
+        <v>2577489.5</v>
+      </c>
+      <c r="C92" s="90"/>
+      <c r="E92" s="94"/>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
     </row>
-    <row r="93" s="96" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" s="95" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="77" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B93" s="33" t="n">
         <f aca="false">B92+B61</f>
-        <v>217437.4</v>
-      </c>
-      <c r="C93" s="91"/>
+        <v>3419400.15</v>
+      </c>
+      <c r="C93" s="90"/>
       <c r="D93" s="1"/>
-      <c r="K93" s="97"/>
-      <c r="L93" s="97"/>
-    </row>
-    <row r="94" s="96" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K93" s="96"/>
+      <c r="L93" s="96"/>
+    </row>
+    <row r="94" s="95" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="77" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B94" s="33" t="n">
         <f aca="false">B93+B62</f>
-        <v>373601.173015873</v>
-      </c>
-      <c r="C94" s="91"/>
+        <v>4261323.55</v>
+      </c>
+      <c r="C94" s="90"/>
       <c r="D94" s="1"/>
-      <c r="K94" s="97"/>
-      <c r="L94" s="97"/>
-    </row>
-    <row r="95" s="96" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K94" s="96"/>
+      <c r="L94" s="96"/>
+    </row>
+    <row r="95" s="95" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="77" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B95" s="33" t="n">
         <f aca="false">B94+B63</f>
-        <v>529764.946031746</v>
-      </c>
-      <c r="C95" s="91"/>
+        <v>5103259.7</v>
+      </c>
+      <c r="C95" s="90"/>
       <c r="D95" s="1"/>
-      <c r="K95" s="97"/>
-      <c r="L95" s="97"/>
-    </row>
-    <row r="96" s="96" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K95" s="96"/>
+      <c r="L95" s="96"/>
+    </row>
+    <row r="96" s="95" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="79" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B96" s="80" t="n">
         <f aca="false">B95+B64</f>
-        <v>710740.623809524</v>
-      </c>
-      <c r="C96" s="91" t="s">
-        <v>85</v>
+        <v>5945208.6</v>
+      </c>
+      <c r="C96" s="90" t="s">
+        <v>83</v>
       </c>
       <c r="D96" s="1"/>
-      <c r="K96" s="97"/>
-      <c r="L96" s="97"/>
-    </row>
-    <row r="97" s="96" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K96" s="96"/>
+      <c r="L96" s="96"/>
+    </row>
+    <row r="97" s="95" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="77" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B97" s="33" t="n">
         <f aca="false">B96+B65</f>
-        <v>908257.571428571</v>
-      </c>
-      <c r="C97" s="91"/>
+        <v>6787170.25</v>
+      </c>
+      <c r="C97" s="90"/>
       <c r="D97" s="1"/>
-      <c r="K97" s="97"/>
-      <c r="L97" s="97"/>
-    </row>
-    <row r="98" s="96" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K97" s="96"/>
+      <c r="L97" s="96"/>
+    </row>
+    <row r="98" s="95" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="77" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B98" s="33" t="n">
         <f aca="false">B97+B66</f>
-        <v>1147127.69365079</v>
+        <v>7629144.65</v>
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -2812,27 +2793,27 @@
     </row>
     <row r="99" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="77" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B99" s="33" t="n">
         <f aca="false">B98+B67</f>
-        <v>1419080.35555556</v>
-      </c>
-      <c r="C99" s="91"/>
+        <v>8471131.8</v>
+      </c>
+      <c r="C99" s="90"/>
     </row>
     <row r="100" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="13"/>
       <c r="B100" s="13"/>
-      <c r="C100" s="91"/>
-      <c r="D100" s="91"/>
-      <c r="E100" s="91"/>
-      <c r="F100" s="91"/>
+      <c r="C100" s="90"/>
+      <c r="D100" s="90"/>
+      <c r="E100" s="90"/>
+      <c r="F100" s="90"/>
     </row>
     <row r="101" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C101" s="91"/>
-      <c r="D101" s="91"/>
-      <c r="E101" s="91"/>
-      <c r="F101" s="91"/>
+      <c r="C101" s="90"/>
+      <c r="D101" s="90"/>
+      <c r="E101" s="90"/>
+      <c r="F101" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="2">
